--- a/Nebraska/Overlays/NEov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Nebraska/Overlays/NEov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nebraska\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC102AF-634F-40A0-90DA-B413407E7192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE83E2F2-69DF-4493-AC8A-F5D4ADEAD001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="1" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -471,13 +471,7 @@
     <t>Nebraska</t>
   </si>
   <si>
-    <t>Nebraska Natural Resrouce Divisions</t>
-  </si>
-  <si>
     <t>Shapefile for NRD areas.</t>
-  </si>
-  <si>
-    <t>https://www.nebraskamap.gov/datasets/natural-resource-district-nrd-boundaries/explore</t>
   </si>
   <si>
     <t>https://www.nrdnet.org/</t>
@@ -501,12 +495,6 @@
     <t>NE</t>
   </si>
   <si>
-    <t>NEre_O1</t>
-  </si>
-  <si>
-    <t>NEre_RU + counter</t>
-  </si>
-  <si>
     <t>*get from geometry field</t>
   </si>
   <si>
@@ -528,9 +516,6 @@
     <t>Natural Resources Districts</t>
   </si>
   <si>
-    <t>NEre_RO + counter</t>
-  </si>
-  <si>
     <t>NRD_Name + "NRD"</t>
   </si>
   <si>
@@ -550,6 +535,24 @@
   </si>
   <si>
     <t>*get from reportingunit.csv, use NRD_Name</t>
+  </si>
+  <si>
+    <t>NEov_O1</t>
+  </si>
+  <si>
+    <t>NEov_RU + counter</t>
+  </si>
+  <si>
+    <t>NEov_RO + counter</t>
+  </si>
+  <si>
+    <t>NEovO1</t>
+  </si>
+  <si>
+    <t>Nebraska Natural Resource Divisions</t>
+  </si>
+  <si>
+    <t>https://www.nebraskamap.gov/datasets/4ba353be6a794e379f90391e54ab6a42_0/explore?location=41.419059%2C-99.634750%2C6.47</t>
   </si>
 </sst>
 </file>
@@ -1253,9 +1256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1293,7 +1296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1399,7 +1402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1541,7 +1544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1551,9 +1554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1593,7 @@
         <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>106</v>
@@ -1601,7 +1604,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>107</v>
@@ -1612,14 +1615,14 @@
         <v>33</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C5" s="68"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="69"/>
       <c r="B6" s="118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="68"/>
     </row>
@@ -1656,11 +1659,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{8B0FF4E1-3D4C-4AFA-BB44-6A35D125CDF8}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{B6FED7CD-3AA2-4830-BEE2-0B761485D02D}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{B6FED7CD-3AA2-4830-BEE2-0B761485D02D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1861,9 +1863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>8</v>
@@ -2004,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>8</v>
@@ -2039,7 +2041,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>8</v>
@@ -2074,7 +2076,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>8</v>
@@ -2109,7 +2111,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>8</v>
@@ -2144,7 +2146,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>8</v>
@@ -2179,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>8</v>
@@ -2214,7 +2216,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G10" s="121" t="s">
         <v>8</v>
@@ -2276,7 +2278,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,7 +2384,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G3" s="58" t="s">
         <v>8</v>
@@ -2456,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I5" s="82" t="s">
         <v>8</v>
@@ -2496,10 +2498,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I6" s="82" t="s">
         <v>8</v>
@@ -2533,10 +2535,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I7" s="82" t="s">
         <v>8</v>
@@ -2567,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>8</v>
@@ -2602,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>8</v>
@@ -2639,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>8</v>
@@ -2676,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>8</v>
@@ -2764,7 +2766,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2860,7 +2862,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G3" s="119" t="s">
         <v>8</v>
@@ -2895,13 +2897,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" s="31" t="s">
         <v>8</v>
@@ -2930,7 +2932,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>8</v>
@@ -2968,10 +2970,10 @@
         <v>8</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>8</v>
@@ -3003,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>8</v>
@@ -3070,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G9" s="61" t="s">
         <v>8</v>
@@ -3103,10 +3105,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="46" t="s">
@@ -3171,7 +3173,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>8</v>
@@ -3204,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>8</v>
@@ -3239,7 +3241,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>8</v>
@@ -3302,7 +3304,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3398,7 +3400,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G3" s="46" t="s">
         <v>8</v>
@@ -3433,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G4" s="46" t="s">
         <v>8</v>
@@ -3468,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>8</v>
@@ -3503,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>8</v>
